--- a/us_threshold_data.xlsx
+++ b/us_threshold_data.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jolakoskip/Desktop/srgbm/resetting_gbm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B029B074-89E9-684F-AAB4-2325160D5F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625566FC-2A9E-AF4B-9FD4-2A59BBEBCD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8300" yWindow="920" windowWidth="20680" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9740" yWindow="640" windowWidth="20680" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Threshold income data" sheetId="1" r:id="rId1"/>
     <sheet name="srGBM parameters" sheetId="3" r:id="rId2"/>
-    <sheet name="avg_income" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,12 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>year</t>
-  </si>
-  <si>
-    <t>avg_income</t>
   </si>
   <si>
     <t>p0p10</t>
@@ -287,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -300,18 +296,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -323,16 +307,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -675,92 +668,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="8"/>
+      <c r="B1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="16"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -3019,7 +3012,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3029,676 +3022,676 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="16"/>
+      <c r="A1" s="12"/>
       <c r="B1" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="18"/>
-    </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
+      <c r="A3" s="7">
         <v>1978</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="6">
         <v>0.34350000000000003</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="6">
         <v>2.483054225E-2</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="10">
         <v>1.9743E-2</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="11">
         <v>0.14897199999999999</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
+      <c r="A4" s="7">
         <v>1979</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="6">
         <v>0.34660000000000002</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="6">
         <v>2.48963302E-2</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="10">
         <v>6.1087000000000002E-2</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="11">
         <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
+      <c r="A5" s="7">
         <v>1980</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="6">
         <v>0.34200000000000003</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="6">
         <v>3.4008329660000003E-2</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="10">
         <v>5.9067000000000001E-2</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="11">
         <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
+      <c r="A6" s="7">
         <v>1981</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="6">
         <v>0.34639999999999999</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="6">
         <v>3.5741562999999997E-2</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="10">
         <v>5.8380000000000001E-2</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="11">
         <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
+      <c r="A7" s="7">
         <v>1982</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="6">
         <v>0.3483</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="6">
         <v>4.8682927899999999E-2</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="10">
         <v>6.1612E-2</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="11">
         <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
+      <c r="A8" s="7">
         <v>1983</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="6">
         <v>0.35439999999999999</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="6">
         <v>4.7589579690000001E-2</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="10">
         <v>4.9772999999999998E-2</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="11">
         <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
+      <c r="A9" s="7">
         <v>1984</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="6">
         <v>0.3669</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="6">
         <v>3.4891012130000003E-2</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="10">
         <v>4.4680999999999998E-2</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="11">
         <v>0.21551899999999999</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
+      <c r="A10" s="7">
         <v>1985</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="6">
         <v>0.36730000000000002</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="6">
         <v>3.3172884549999997E-2</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="10">
         <v>4.1529000000000003E-2</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="11">
         <v>0.28357399999999999</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
+      <c r="A11" s="7">
         <v>1986</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="6">
         <v>0.36430000000000001</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="6">
         <v>3.3026423960000002E-2</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="10">
         <v>4.3913000000000001E-2</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="11">
         <v>0.32644200000000001</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
+      <c r="A12" s="7">
         <v>1987</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="6">
         <v>0.37380000000000002</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="6">
         <v>2.9222847520000001E-2</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="10">
         <v>3.8457999999999999E-2</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="11">
         <v>0.32324999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
+      <c r="A13" s="7">
         <v>1988</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="6">
         <v>0.39079999999999998</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="6">
         <v>2.6120296800000001E-2</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="10">
         <v>3.9024000000000003E-2</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="11">
         <v>0.31531399999999998</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
+      <c r="A14" s="7">
         <v>1989</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="6">
         <v>0.38669999999999999</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="6">
         <v>2.5181665499999999E-2</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="10">
         <v>6.1207999999999999E-2</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="11">
         <v>0.32076700000000002</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="11">
+      <c r="A15" s="7">
         <v>1990</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="6">
         <v>0.38640000000000002</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="6">
         <v>2.7787328060000002E-2</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="10">
         <v>5.4662000000000002E-2</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="11">
         <v>0.30892700000000001</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
+      <c r="A16" s="7">
         <v>1991</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="6">
         <v>0.38429999999999997</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="6">
         <v>3.538755935E-2</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="10">
         <v>5.8824000000000001E-2</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="11">
         <v>0.29396899999999998</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="11">
+      <c r="A17" s="7">
         <v>1992</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="6">
         <v>0.3947</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="6">
         <v>3.9315145160000002E-2</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="10">
         <v>5.5389000000000001E-2</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="11">
         <v>0.29059699999999999</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="11">
+      <c r="A18" s="7">
         <v>1993</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="6">
         <v>0.39119999999999999</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="6">
         <v>3.5421990289999997E-2</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="10">
         <v>5.4420000000000003E-2</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="11">
         <v>0.27707799999999999</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="11">
+      <c r="A19" s="7">
         <v>1994</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="6">
         <v>0.39169999999999999</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="6">
         <v>2.7637266109999999E-2</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="10">
         <v>5.7289E-2</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="11">
         <v>0.26841199999999998</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="11">
+      <c r="A20" s="7">
         <v>1995</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="6">
         <v>0.39960000000000001</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="6">
         <v>2.5744019609999998E-2</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="10">
         <v>5.1995E-2</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="11">
         <v>0.26578200000000002</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="11">
+      <c r="A21" s="7">
         <v>1996</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="6">
         <v>0.4088</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="6">
         <v>2.4482892990000001E-2</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="10">
         <v>4.6459E-2</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="11">
         <v>0.26670700000000003</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="11">
+      <c r="A22" s="7">
         <v>1997</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="6">
         <v>0.4158</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="6">
         <v>2.2328096749999998E-2</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="10">
         <v>4.4882999999999999E-2</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="11">
         <v>0.26416600000000001</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="11">
+      <c r="A23" s="7">
         <v>1998</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="6">
         <v>0.42</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="6">
         <v>2.0550486890000001E-2</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="10">
         <v>4.4075000000000003E-2</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="11">
         <v>0.261071</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="11">
+      <c r="A24" s="7">
         <v>1999</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="6">
         <v>0.42309999999999998</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="6">
         <v>1.9402121590000002E-2</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="10">
         <v>4.8520000000000001E-2</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="11">
         <v>0.25207099999999999</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="11">
+      <c r="A25" s="7">
         <v>2000</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="6">
         <v>0.42859999999999998</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="6">
         <v>1.837262697E-2</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="10">
         <v>5.0136E-2</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="11">
         <v>0.24931600000000001</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="11">
+      <c r="A26" s="7">
         <v>2001</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="6">
         <v>0.42009999999999997</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="6">
         <v>2.3908718539999999E-2</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="10">
         <v>4.6378000000000003E-2</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="11">
         <v>0.23935400000000001</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="11">
+      <c r="A27" s="7">
         <v>2002</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="6">
         <v>0.41599999999999998</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="6">
         <v>2.9772429949999998E-2</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="10">
         <v>4.6781999999999997E-2</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="11">
         <v>0.231489</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="11">
+      <c r="A28" s="7">
         <v>2003</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="6">
         <v>0.41670000000000001</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="6">
         <v>3.0256886140000001E-2</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="10">
         <v>4.3589999999999997E-2</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="11">
         <v>0.228103</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="11">
+      <c r="A29" s="7">
         <v>2004</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="6">
         <v>0.42420000000000002</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="6">
         <v>2.6733494359999999E-2</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="10">
         <v>3.866E-2</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="11">
         <v>0.22774800000000001</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="11">
+      <c r="A30" s="7">
         <v>2005</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="6">
         <v>0.43440000000000001</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="6">
         <v>2.3718893040000001E-2</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="10">
         <v>4.258E-2</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="11">
         <v>0.22819300000000001</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="11">
+      <c r="A31" s="7">
         <v>2006</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="6">
         <v>0.44230000000000003</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="6">
         <v>2.1498403619999999E-2</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="10">
         <v>4.3791999999999998E-2</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="11">
         <v>0.22725300000000001</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="11">
+      <c r="A32" s="7">
         <v>2007</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="6">
         <v>0.442</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="6">
         <v>2.2030612509999999E-2</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="10">
         <v>3.5024E-2</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="11">
         <v>0.2283</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="11">
+      <c r="A33" s="7">
         <v>2008</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="6">
         <v>0.438</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="6">
         <v>2.9090308969999999E-2</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="10">
         <v>2.5486999999999999E-2</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="11">
         <v>0.22914899999999999</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="11">
+      <c r="A34" s="7">
         <v>2009</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="6">
         <v>0.4259</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="6">
         <v>5.0884550350000002E-2</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="10">
         <v>2.375E-2</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="11">
         <v>0.220553</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="11">
+      <c r="A35" s="7">
         <v>2010</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="6">
         <v>0.43880000000000002</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="6">
         <v>5.0778685249999997E-2</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="10">
         <v>2.1002E-2</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="11">
         <v>0.228405</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="11">
+      <c r="A36" s="7">
         <v>2011</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="6">
         <v>0.44469999999999998</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="6">
         <v>4.5255594529999998E-2</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="10">
         <v>2.2658999999999999E-2</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="11">
         <v>0.22809099999999999</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="11">
+      <c r="A37" s="7">
         <v>2012</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="6">
         <v>0.45550000000000002</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="6">
         <v>3.8878145570000001E-2</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="10">
         <v>1.8214000000000001E-2</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="11">
         <v>0.23711399999999999</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="11">
+      <c r="A38" s="7">
         <v>2013</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="6">
         <v>0.4506</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="6">
         <v>3.4632431790000001E-2</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D38" s="10">
         <v>1.8294999999999999E-2</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="11">
         <v>0.23263500000000001</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="11">
+      <c r="A39" s="7">
         <v>2014</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="6">
         <v>0.45669999999999999</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="6">
         <v>2.8032199099999999E-2</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="10">
         <v>1.7930999999999999E-2</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="11">
         <v>0.23331099999999999</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="11">
+      <c r="A40" s="7">
         <v>2015</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="6">
         <v>0.45679999999999998</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="6">
         <v>2.3904173970000001E-2</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D40" s="10">
         <v>1.9748999999999999E-2</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="11">
         <v>0.22839100000000001</v>
       </c>
     </row>
@@ -3710,1414 +3703,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255CC585-068F-7743-84DA-288138F38A37}">
-  <dimension ref="A1:N40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1978</v>
-      </c>
-      <c r="B3">
-        <v>1213</v>
-      </c>
-      <c r="C3">
-        <v>9702.2000000000007</v>
-      </c>
-      <c r="D3">
-        <v>17450.3</v>
-      </c>
-      <c r="E3">
-        <v>23666.9</v>
-      </c>
-      <c r="F3">
-        <v>29621.599999999999</v>
-      </c>
-      <c r="G3">
-        <v>36108.199999999997</v>
-      </c>
-      <c r="H3">
-        <v>43324.800000000003</v>
-      </c>
-      <c r="J3">
-        <v>52471.6</v>
-      </c>
-      <c r="K3">
-        <v>66641.100000000006</v>
-      </c>
-      <c r="N3">
-        <v>146632.70000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1979</v>
-      </c>
-      <c r="B4">
-        <v>1244</v>
-      </c>
-      <c r="C4">
-        <v>9950.1</v>
-      </c>
-      <c r="D4">
-        <v>17788.900000000001</v>
-      </c>
-      <c r="E4">
-        <v>23882.799999999999</v>
-      </c>
-      <c r="F4">
-        <v>29873.5</v>
-      </c>
-      <c r="G4">
-        <v>36078.5</v>
-      </c>
-      <c r="H4">
-        <v>43254.2</v>
-      </c>
-      <c r="J4">
-        <v>52250.6</v>
-      </c>
-      <c r="K4">
-        <v>65927.3</v>
-      </c>
-      <c r="N4">
-        <v>148681.70000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1980</v>
-      </c>
-      <c r="B5">
-        <v>1182</v>
-      </c>
-      <c r="C5">
-        <v>9452.1</v>
-      </c>
-      <c r="D5">
-        <v>16869.8</v>
-      </c>
-      <c r="E5">
-        <v>23004.7</v>
-      </c>
-      <c r="F5">
-        <v>29065.9</v>
-      </c>
-      <c r="G5">
-        <v>35389.1</v>
-      </c>
-      <c r="H5">
-        <v>42596.5</v>
-      </c>
-      <c r="J5">
-        <v>51720.1</v>
-      </c>
-      <c r="K5">
-        <v>65350.3</v>
-      </c>
-      <c r="N5">
-        <v>142718.20000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1981</v>
-      </c>
-      <c r="B6">
-        <v>1166</v>
-      </c>
-      <c r="C6">
-        <v>9324.7999999999993</v>
-      </c>
-      <c r="D6">
-        <v>16687</v>
-      </c>
-      <c r="E6">
-        <v>22774.7</v>
-      </c>
-      <c r="F6">
-        <v>28872</v>
-      </c>
-      <c r="G6">
-        <v>35300.5</v>
-      </c>
-      <c r="H6">
-        <v>42744.5</v>
-      </c>
-      <c r="J6">
-        <v>52191.7</v>
-      </c>
-      <c r="K6">
-        <v>66038.399999999994</v>
-      </c>
-      <c r="N6">
-        <v>145805.79999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1982</v>
-      </c>
-      <c r="B7">
-        <v>1102</v>
-      </c>
-      <c r="C7">
-        <v>8815.9</v>
-      </c>
-      <c r="D7">
-        <v>15691.4</v>
-      </c>
-      <c r="E7">
-        <v>21484.1</v>
-      </c>
-      <c r="F7">
-        <v>27551.200000000001</v>
-      </c>
-      <c r="G7">
-        <v>34081.4</v>
-      </c>
-      <c r="H7">
-        <v>41381.5</v>
-      </c>
-      <c r="J7">
-        <v>50809.3</v>
-      </c>
-      <c r="K7">
-        <v>64436.7</v>
-      </c>
-      <c r="N7">
-        <v>141841.60000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1983</v>
-      </c>
-      <c r="B8">
-        <v>1055</v>
-      </c>
-      <c r="C8">
-        <v>8437.2999999999993</v>
-      </c>
-      <c r="D8">
-        <v>15152.8</v>
-      </c>
-      <c r="E8">
-        <v>21080.5</v>
-      </c>
-      <c r="F8">
-        <v>27464.6</v>
-      </c>
-      <c r="G8">
-        <v>34320.300000000003</v>
-      </c>
-      <c r="H8">
-        <v>42064.2</v>
-      </c>
-      <c r="J8">
-        <v>51769.5</v>
-      </c>
-      <c r="K8">
-        <v>66342.100000000006</v>
-      </c>
-      <c r="N8">
-        <v>146968.70000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1984</v>
-      </c>
-      <c r="B9">
-        <v>1100</v>
-      </c>
-      <c r="C9">
-        <v>8798.7999999999993</v>
-      </c>
-      <c r="D9">
-        <v>15850</v>
-      </c>
-      <c r="E9">
-        <v>22013</v>
-      </c>
-      <c r="F9">
-        <v>28765.8</v>
-      </c>
-      <c r="G9">
-        <v>35982.800000000003</v>
-      </c>
-      <c r="H9">
-        <v>44126.400000000001</v>
-      </c>
-      <c r="J9">
-        <v>54134.5</v>
-      </c>
-      <c r="K9">
-        <v>70042.899999999994</v>
-      </c>
-      <c r="N9">
-        <v>162730.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>1985</v>
-      </c>
-      <c r="B10">
-        <v>1108</v>
-      </c>
-      <c r="C10">
-        <v>8864.9</v>
-      </c>
-      <c r="D10">
-        <v>16042.1</v>
-      </c>
-      <c r="E10">
-        <v>22410</v>
-      </c>
-      <c r="F10">
-        <v>29277.1</v>
-      </c>
-      <c r="G10">
-        <v>36644.199999999997</v>
-      </c>
-      <c r="H10">
-        <v>45100.6</v>
-      </c>
-      <c r="J10">
-        <v>55311</v>
-      </c>
-      <c r="K10">
-        <v>71708.5</v>
-      </c>
-      <c r="N10">
-        <v>166295.20000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>1986</v>
-      </c>
-      <c r="B11">
-        <v>1098</v>
-      </c>
-      <c r="C11">
-        <v>8779.6</v>
-      </c>
-      <c r="D11">
-        <v>15966.5</v>
-      </c>
-      <c r="E11">
-        <v>22604.400000000001</v>
-      </c>
-      <c r="F11">
-        <v>29654.9</v>
-      </c>
-      <c r="G11">
-        <v>37190.9</v>
-      </c>
-      <c r="H11">
-        <v>45984.800000000003</v>
-      </c>
-      <c r="J11">
-        <v>56644.800000000003</v>
-      </c>
-      <c r="K11">
-        <v>73131.899999999994</v>
-      </c>
-      <c r="N11">
-        <v>166784.70000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1987</v>
-      </c>
-      <c r="B12">
-        <v>1111</v>
-      </c>
-      <c r="C12">
-        <v>8884.1</v>
-      </c>
-      <c r="D12">
-        <v>16203</v>
-      </c>
-      <c r="E12">
-        <v>22907.4</v>
-      </c>
-      <c r="F12">
-        <v>30206.1</v>
-      </c>
-      <c r="G12">
-        <v>37985.4</v>
-      </c>
-      <c r="H12">
-        <v>46847.199999999997</v>
-      </c>
-      <c r="J12">
-        <v>57574</v>
-      </c>
-      <c r="K12">
-        <v>74320.899999999994</v>
-      </c>
-      <c r="N12">
-        <v>176705.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>1988</v>
-      </c>
-      <c r="B13">
-        <v>1102</v>
-      </c>
-      <c r="C13">
-        <v>8814.9</v>
-      </c>
-      <c r="D13">
-        <v>16226.7</v>
-      </c>
-      <c r="E13">
-        <v>23348.6</v>
-      </c>
-      <c r="F13">
-        <v>30813.599999999999</v>
-      </c>
-      <c r="G13">
-        <v>38458.800000000003</v>
-      </c>
-      <c r="H13">
-        <v>47495.7</v>
-      </c>
-      <c r="J13">
-        <v>58295.199999999997</v>
-      </c>
-      <c r="K13">
-        <v>75605.600000000006</v>
-      </c>
-      <c r="N13">
-        <v>192535.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>1989</v>
-      </c>
-      <c r="B14">
-        <v>1130</v>
-      </c>
-      <c r="C14">
-        <v>9037.2000000000007</v>
-      </c>
-      <c r="D14">
-        <v>16599.8</v>
-      </c>
-      <c r="E14">
-        <v>23851</v>
-      </c>
-      <c r="F14">
-        <v>31269.3</v>
-      </c>
-      <c r="G14">
-        <v>39119.699999999997</v>
-      </c>
-      <c r="H14">
-        <v>48353.3</v>
-      </c>
-      <c r="J14">
-        <v>59793.3</v>
-      </c>
-      <c r="K14">
-        <v>77374.7</v>
-      </c>
-      <c r="N14">
-        <v>193294.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>1990</v>
-      </c>
-      <c r="B15">
-        <v>1119</v>
-      </c>
-      <c r="C15">
-        <v>8953.2999999999993</v>
-      </c>
-      <c r="D15">
-        <v>16560.5</v>
-      </c>
-      <c r="E15">
-        <v>23887.4</v>
-      </c>
-      <c r="F15">
-        <v>31463.5</v>
-      </c>
-      <c r="G15">
-        <v>39485.599999999999</v>
-      </c>
-      <c r="H15">
-        <v>48809.5</v>
-      </c>
-      <c r="J15">
-        <v>60103.4</v>
-      </c>
-      <c r="K15">
-        <v>77914.5</v>
-      </c>
-      <c r="N15">
-        <v>194126.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>1991</v>
-      </c>
-      <c r="B16">
-        <v>1103</v>
-      </c>
-      <c r="C16">
-        <v>8827.4</v>
-      </c>
-      <c r="D16">
-        <v>16211.1</v>
-      </c>
-      <c r="E16">
-        <v>23293</v>
-      </c>
-      <c r="F16">
-        <v>30834.5</v>
-      </c>
-      <c r="G16">
-        <v>38994.9</v>
-      </c>
-      <c r="H16">
-        <v>48521.9</v>
-      </c>
-      <c r="J16">
-        <v>59841.8</v>
-      </c>
-      <c r="K16">
-        <v>77929.399999999994</v>
-      </c>
-      <c r="N16">
-        <v>190688.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>1992</v>
-      </c>
-      <c r="B17">
-        <v>1074</v>
-      </c>
-      <c r="C17">
-        <v>8593.5</v>
-      </c>
-      <c r="D17">
-        <v>15660.5</v>
-      </c>
-      <c r="E17">
-        <v>22765.599999999999</v>
-      </c>
-      <c r="F17">
-        <v>30888.400000000001</v>
-      </c>
-      <c r="G17">
-        <v>39601.199999999997</v>
-      </c>
-      <c r="H17">
-        <v>49276.800000000003</v>
-      </c>
-      <c r="J17">
-        <v>61077.8</v>
-      </c>
-      <c r="K17">
-        <v>79576.800000000003</v>
-      </c>
-      <c r="N17">
-        <v>201138.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>1993</v>
-      </c>
-      <c r="B18">
-        <v>1096</v>
-      </c>
-      <c r="C18">
-        <v>8766.7999999999993</v>
-      </c>
-      <c r="D18">
-        <v>15985.7</v>
-      </c>
-      <c r="E18">
-        <v>23307.200000000001</v>
-      </c>
-      <c r="F18">
-        <v>31556.2</v>
-      </c>
-      <c r="G18">
-        <v>40404.6</v>
-      </c>
-      <c r="H18">
-        <v>49993.3</v>
-      </c>
-      <c r="J18">
-        <v>62194.400000000001</v>
-      </c>
-      <c r="K18">
-        <v>81146.3</v>
-      </c>
-      <c r="N18">
-        <v>202076.79999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>1994</v>
-      </c>
-      <c r="B19">
-        <v>1144</v>
-      </c>
-      <c r="C19">
-        <v>9154</v>
-      </c>
-      <c r="D19">
-        <v>16659</v>
-      </c>
-      <c r="E19">
-        <v>23958.9</v>
-      </c>
-      <c r="F19">
-        <v>32465</v>
-      </c>
-      <c r="G19">
-        <v>41922.6</v>
-      </c>
-      <c r="H19">
-        <v>51718.3</v>
-      </c>
-      <c r="J19">
-        <v>64124.6</v>
-      </c>
-      <c r="K19">
-        <v>84183.2</v>
-      </c>
-      <c r="N19">
-        <v>209515.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>1995</v>
-      </c>
-      <c r="B20">
-        <v>1142</v>
-      </c>
-      <c r="C20">
-        <v>9134.4</v>
-      </c>
-      <c r="D20">
-        <v>16558</v>
-      </c>
-      <c r="E20">
-        <v>23895.1</v>
-      </c>
-      <c r="F20">
-        <v>32470.7</v>
-      </c>
-      <c r="G20">
-        <v>41898.199999999997</v>
-      </c>
-      <c r="H20">
-        <v>52133.1</v>
-      </c>
-      <c r="J20">
-        <v>65144.3</v>
-      </c>
-      <c r="K20">
-        <v>86079.2</v>
-      </c>
-      <c r="N20">
-        <v>218611.3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>1996</v>
-      </c>
-      <c r="B21">
-        <v>1163</v>
-      </c>
-      <c r="C21">
-        <v>9299.7999999999993</v>
-      </c>
-      <c r="D21">
-        <v>16933.099999999999</v>
-      </c>
-      <c r="E21">
-        <v>24326.7</v>
-      </c>
-      <c r="F21">
-        <v>32844.400000000001</v>
-      </c>
-      <c r="G21">
-        <v>42399.199999999997</v>
-      </c>
-      <c r="H21">
-        <v>52968.3</v>
-      </c>
-      <c r="J21">
-        <v>66160.100000000006</v>
-      </c>
-      <c r="K21">
-        <v>88051.1</v>
-      </c>
-      <c r="N21">
-        <v>231021.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>1997</v>
-      </c>
-      <c r="B22">
-        <v>1183</v>
-      </c>
-      <c r="C22">
-        <v>9460.2999999999993</v>
-      </c>
-      <c r="D22">
-        <v>17202.5</v>
-      </c>
-      <c r="E22">
-        <v>24897.5</v>
-      </c>
-      <c r="F22">
-        <v>33758.9</v>
-      </c>
-      <c r="G22">
-        <v>43471.5</v>
-      </c>
-      <c r="H22">
-        <v>54162.7</v>
-      </c>
-      <c r="J22">
-        <v>68045.2</v>
-      </c>
-      <c r="K22">
-        <v>90633.4</v>
-      </c>
-      <c r="N22">
-        <v>243954.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>1998</v>
-      </c>
-      <c r="B23">
-        <v>1238</v>
-      </c>
-      <c r="C23">
-        <v>9900.2000000000007</v>
-      </c>
-      <c r="D23">
-        <v>17899.7</v>
-      </c>
-      <c r="E23">
-        <v>25995.5</v>
-      </c>
-      <c r="F23">
-        <v>35158.6</v>
-      </c>
-      <c r="G23">
-        <v>44817</v>
-      </c>
-      <c r="H23">
-        <v>55799</v>
-      </c>
-      <c r="J23">
-        <v>69843.100000000006</v>
-      </c>
-      <c r="K23">
-        <v>93149.4</v>
-      </c>
-      <c r="N23">
-        <v>256208.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>1999</v>
-      </c>
-      <c r="B24">
-        <v>1268</v>
-      </c>
-      <c r="C24">
-        <v>10142.700000000001</v>
-      </c>
-      <c r="D24">
-        <v>18421.400000000001</v>
-      </c>
-      <c r="E24">
-        <v>26698.5</v>
-      </c>
-      <c r="F24">
-        <v>36028.1</v>
-      </c>
-      <c r="G24">
-        <v>45762</v>
-      </c>
-      <c r="H24">
-        <v>57118.3</v>
-      </c>
-      <c r="J24">
-        <v>71595.600000000006</v>
-      </c>
-      <c r="K24">
-        <v>95875.1</v>
-      </c>
-      <c r="N24">
-        <v>266177.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>2000</v>
-      </c>
-      <c r="B25">
-        <v>1294</v>
-      </c>
-      <c r="C25">
-        <v>10348.6</v>
-      </c>
-      <c r="D25">
-        <v>18923.900000000001</v>
-      </c>
-      <c r="E25">
-        <v>27674.5</v>
-      </c>
-      <c r="F25">
-        <v>36920.300000000003</v>
-      </c>
-      <c r="G25">
-        <v>46894.7</v>
-      </c>
-      <c r="H25">
-        <v>58316.1</v>
-      </c>
-      <c r="J25">
-        <v>73138.2</v>
-      </c>
-      <c r="K25">
-        <v>98066.9</v>
-      </c>
-      <c r="N25">
-        <v>278665.3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>2001</v>
-      </c>
-      <c r="B26">
-        <v>1314</v>
-      </c>
-      <c r="C26">
-        <v>10514.2</v>
-      </c>
-      <c r="D26">
-        <v>19310.8</v>
-      </c>
-      <c r="E26">
-        <v>27940.5</v>
-      </c>
-      <c r="F26">
-        <v>37212</v>
-      </c>
-      <c r="G26">
-        <v>47311.4</v>
-      </c>
-      <c r="H26">
-        <v>58897.7</v>
-      </c>
-      <c r="J26">
-        <v>73852.399999999994</v>
-      </c>
-      <c r="K26">
-        <v>98908.2</v>
-      </c>
-      <c r="N26">
-        <v>271812.90000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>2002</v>
-      </c>
-      <c r="B27">
-        <v>1336</v>
-      </c>
-      <c r="C27">
-        <v>10684</v>
-      </c>
-      <c r="D27">
-        <v>19385.099999999999</v>
-      </c>
-      <c r="E27">
-        <v>27905.4</v>
-      </c>
-      <c r="F27">
-        <v>37298.800000000003</v>
-      </c>
-      <c r="G27">
-        <v>47739.8</v>
-      </c>
-      <c r="H27">
-        <v>59626</v>
-      </c>
-      <c r="J27">
-        <v>74809.5</v>
-      </c>
-      <c r="K27">
-        <v>99495.5</v>
-      </c>
-      <c r="N27">
-        <v>269421.90000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>2003</v>
-      </c>
-      <c r="B28">
-        <v>1334</v>
-      </c>
-      <c r="C28">
-        <v>10674.4</v>
-      </c>
-      <c r="D28">
-        <v>19309.099999999999</v>
-      </c>
-      <c r="E28">
-        <v>27737</v>
-      </c>
-      <c r="F28">
-        <v>37257.599999999999</v>
-      </c>
-      <c r="G28">
-        <v>48156</v>
-      </c>
-      <c r="H28">
-        <v>60669.4</v>
-      </c>
-      <c r="J28">
-        <v>76268.3</v>
-      </c>
-      <c r="K28">
-        <v>101436.4</v>
-      </c>
-      <c r="N28">
-        <v>273506</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>2004</v>
-      </c>
-      <c r="B29">
-        <v>1347</v>
-      </c>
-      <c r="C29">
-        <v>10778.3</v>
-      </c>
-      <c r="D29">
-        <v>19457.8</v>
-      </c>
-      <c r="E29">
-        <v>28027.3</v>
-      </c>
-      <c r="F29">
-        <v>37793.599999999999</v>
-      </c>
-      <c r="G29">
-        <v>48906.1</v>
-      </c>
-      <c r="H29">
-        <v>61837.599999999999</v>
-      </c>
-      <c r="J29">
-        <v>77617.8</v>
-      </c>
-      <c r="K29">
-        <v>103712.4</v>
-      </c>
-      <c r="N29">
-        <v>286924.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>2005</v>
-      </c>
-      <c r="B30">
-        <v>1350</v>
-      </c>
-      <c r="C30">
-        <v>10798.9</v>
-      </c>
-      <c r="D30">
-        <v>19439.3</v>
-      </c>
-      <c r="E30">
-        <v>27821.9</v>
-      </c>
-      <c r="F30">
-        <v>37502.199999999997</v>
-      </c>
-      <c r="G30">
-        <v>48768.9</v>
-      </c>
-      <c r="H30">
-        <v>61700.4</v>
-      </c>
-      <c r="J30">
-        <v>78283.5</v>
-      </c>
-      <c r="K30">
-        <v>105552.9</v>
-      </c>
-      <c r="N30">
-        <v>300437.7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>2006</v>
-      </c>
-      <c r="B31">
-        <v>1341</v>
-      </c>
-      <c r="C31">
-        <v>10726.9</v>
-      </c>
-      <c r="D31">
-        <v>19607</v>
-      </c>
-      <c r="E31">
-        <v>28212.3</v>
-      </c>
-      <c r="F31">
-        <v>37862.6</v>
-      </c>
-      <c r="G31">
-        <v>49033.1</v>
-      </c>
-      <c r="H31">
-        <v>62244.5</v>
-      </c>
-      <c r="J31">
-        <v>79048.2</v>
-      </c>
-      <c r="K31">
-        <v>107246.5</v>
-      </c>
-      <c r="N31">
-        <v>313491.8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>2007</v>
-      </c>
-      <c r="B32">
-        <v>1363</v>
-      </c>
-      <c r="C32">
-        <v>10907.7</v>
-      </c>
-      <c r="D32">
-        <v>19816.099999999999</v>
-      </c>
-      <c r="E32">
-        <v>28270.799999999999</v>
-      </c>
-      <c r="F32">
-        <v>37777.199999999997</v>
-      </c>
-      <c r="G32">
-        <v>48530.7</v>
-      </c>
-      <c r="H32">
-        <v>61385</v>
-      </c>
-      <c r="J32">
-        <v>78224.100000000006</v>
-      </c>
-      <c r="K32">
-        <v>106101</v>
-      </c>
-      <c r="N32">
-        <v>310807.90000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>2008</v>
-      </c>
-      <c r="B33">
-        <v>1321</v>
-      </c>
-      <c r="C33">
-        <v>10566</v>
-      </c>
-      <c r="D33">
-        <v>19187.099999999999</v>
-      </c>
-      <c r="E33">
-        <v>27367.8</v>
-      </c>
-      <c r="F33">
-        <v>36758.800000000003</v>
-      </c>
-      <c r="G33">
-        <v>47525.599999999999</v>
-      </c>
-      <c r="H33">
-        <v>60186.8</v>
-      </c>
-      <c r="J33">
-        <v>76972.7</v>
-      </c>
-      <c r="K33">
-        <v>104308</v>
-      </c>
-      <c r="N33">
-        <v>299425.59999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>2009</v>
-      </c>
-      <c r="B34">
-        <v>1244</v>
-      </c>
-      <c r="C34">
-        <v>9949.9</v>
-      </c>
-      <c r="D34">
-        <v>17996.7</v>
-      </c>
-      <c r="E34">
-        <v>25785.5</v>
-      </c>
-      <c r="F34">
-        <v>35316.300000000003</v>
-      </c>
-      <c r="G34">
-        <v>46423.7</v>
-      </c>
-      <c r="H34">
-        <v>59039.1</v>
-      </c>
-      <c r="J34">
-        <v>75377.100000000006</v>
-      </c>
-      <c r="K34">
-        <v>102327.3</v>
-      </c>
-      <c r="N34">
-        <v>277085.09999999998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>2010</v>
-      </c>
-      <c r="B35">
-        <v>1256</v>
-      </c>
-      <c r="C35">
-        <v>10046.299999999999</v>
-      </c>
-      <c r="D35">
-        <v>18136.099999999999</v>
-      </c>
-      <c r="E35">
-        <v>25900.9</v>
-      </c>
-      <c r="F35">
-        <v>35301.699999999997</v>
-      </c>
-      <c r="G35">
-        <v>46459.4</v>
-      </c>
-      <c r="H35">
-        <v>59513.7</v>
-      </c>
-      <c r="J35">
-        <v>76266.2</v>
-      </c>
-      <c r="K35">
-        <v>104150.1</v>
-      </c>
-      <c r="N35">
-        <v>294758.40000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>2011</v>
-      </c>
-      <c r="B36">
-        <v>1216</v>
-      </c>
-      <c r="C36">
-        <v>9731.6</v>
-      </c>
-      <c r="D36">
-        <v>17822.599999999999</v>
-      </c>
-      <c r="E36">
-        <v>25662.6</v>
-      </c>
-      <c r="F36">
-        <v>35454.9</v>
-      </c>
-      <c r="G36">
-        <v>46772.3</v>
-      </c>
-      <c r="H36">
-        <v>59884.9</v>
-      </c>
-      <c r="J36">
-        <v>77215.3</v>
-      </c>
-      <c r="K36">
-        <v>105643</v>
-      </c>
-      <c r="N36">
-        <v>303853.59999999998</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>2012</v>
-      </c>
-      <c r="B37">
-        <v>1238</v>
-      </c>
-      <c r="C37">
-        <v>9906.4</v>
-      </c>
-      <c r="D37">
-        <v>18124.400000000001</v>
-      </c>
-      <c r="E37">
-        <v>25922.9</v>
-      </c>
-      <c r="F37">
-        <v>35537.1</v>
-      </c>
-      <c r="G37">
-        <v>46763.7</v>
-      </c>
-      <c r="H37">
-        <v>59997.2</v>
-      </c>
-      <c r="J37">
-        <v>77488.7</v>
-      </c>
-      <c r="K37">
-        <v>106305</v>
-      </c>
-      <c r="N37">
-        <v>318970.7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>2013</v>
-      </c>
-      <c r="B38">
-        <v>1282</v>
-      </c>
-      <c r="C38">
-        <v>10255.200000000001</v>
-      </c>
-      <c r="D38">
-        <v>18441.8</v>
-      </c>
-      <c r="E38">
-        <v>26061</v>
-      </c>
-      <c r="F38">
-        <v>35588.199999999997</v>
-      </c>
-      <c r="G38">
-        <v>46748.2</v>
-      </c>
-      <c r="H38">
-        <v>60394.1</v>
-      </c>
-      <c r="J38">
-        <v>78448.2</v>
-      </c>
-      <c r="K38">
-        <v>108578.8</v>
-      </c>
-      <c r="N38">
-        <v>316441.3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>2014</v>
-      </c>
-      <c r="B39">
-        <v>1279</v>
-      </c>
-      <c r="C39">
-        <v>10229.4</v>
-      </c>
-      <c r="D39">
-        <v>18593.5</v>
-      </c>
-      <c r="E39">
-        <v>26261</v>
-      </c>
-      <c r="F39">
-        <v>35724.6</v>
-      </c>
-      <c r="G39">
-        <v>47050.7</v>
-      </c>
-      <c r="H39">
-        <v>60953</v>
-      </c>
-      <c r="J39">
-        <v>79543.199999999997</v>
-      </c>
-      <c r="K39">
-        <v>110679.4</v>
-      </c>
-      <c r="N39">
-        <v>328117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>2015</v>
-      </c>
-      <c r="B40">
-        <v>1327</v>
-      </c>
-      <c r="C40">
-        <v>10617</v>
-      </c>
-      <c r="D40">
-        <v>19277.400000000001</v>
-      </c>
-      <c r="E40">
-        <v>27036.5</v>
-      </c>
-      <c r="F40">
-        <v>36540.800000000003</v>
-      </c>
-      <c r="G40">
-        <v>48171.3</v>
-      </c>
-      <c r="H40">
-        <v>62243.8</v>
-      </c>
-      <c r="J40">
-        <v>81223.5</v>
-      </c>
-      <c r="K40">
-        <v>112963.7</v>
-      </c>
-      <c r="N40">
-        <v>335911.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:N1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>